--- a/slides/lecture05/choosecols_chooserows.xlsx
+++ b/slides/lecture05/choosecols_chooserows.xlsx
@@ -8,37 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8929" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA26D2C-5F60-4F6D-9178-50E57EE384AD}"/>
+  <xr:revisionPtr revIDLastSave="9030" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6539EED1-CA3A-4043-9EA4-A67BBC5CA872}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHOOSEROWS and CHOOSECOLS" sheetId="28" r:id="rId1"/>
-    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId2"/>
+    <sheet name="Exercises" sheetId="29" r:id="rId2"/>
+    <sheet name="Exercises (solutions)" sheetId="30" r:id="rId3"/>
+    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ARR" comment="An array constant used for examples.">{1,2,4;3,4,4}</definedName>
-    <definedName name="GETDATA" comment="Get mean sales, maximal year, and the best-selling game from the table 'table &amp; Table'.">_xlfn.LAMBDA(_xlpm.name, _xlfn.LET(_xlpm.table, _xlpm.name &amp; "Table", _xlpm.sales, TABLECOL(_xlpm.table, "Sales"), _xlpm.years, TABLECOL(_xlpm.table, "Year"), _xlpm.names, TABLECOL(_xlpm.table, "Name"), _xlpm.calculations, _xlfn.VSTACK(AVERAGE(_xlpm.sales), MAX(_xlpm.years), _xlfn.XLOOKUP(MAX(_xlpm.sales), _xlpm.sales, _xlpm.names)), _xlfn.HSTACK({"Average sales";"Max year";"Best-selling game"}, _xlpm.calculations)))</definedName>
-    <definedName name="GRADES" comment="Grade array.">TRANSPOSE({91,80,70,50,40,0;"A","B","C","D","E","F"})</definedName>
     <definedName name="GRADES_CUTTOFFS">{91;80;70;50;40;0}</definedName>
     <definedName name="GRADES_LETTERS">{"A";"B";"C";"D";"E";"F"}</definedName>
-    <definedName name="IN" comment="Checks if value is in array.">_xlfn.LAMBDA(_xlpm.value,_xlpm.array, _xlfn.LET(_xlpm.col, _xlfn.TOCOL(_xlpm.array), SUM(--(_xlpm.col = _xlpm.value)) &gt; 0))</definedName>
-    <definedName name="IN_" comment="Checks if value is in array.">_xlfn.LAMBDA(_xlpm.value,_xlpm.array, SUM(--(_xlpm.array = _xlpm.value)) &gt; 0)</definedName>
-    <definedName name="INDICES">_xlfn.LAMBDA(_xlpm.good,_xlpm.names, _xlfn._xlws.FILTER(_xlfn.HSTACK(_xlfn.SEQUENCE(COUNTA(_xlpm.names)), _xlfn.TOCOL(_xlpm.names)), _xlfn.TOCOL(_xlfn.MAP(_xlpm.names, _xlfn.LAMBDA(_xlpm.name, IN(_xlpm.name, _xlpm.good))))))</definedName>
-    <definedName name="INDICES_">_xlfn.LAMBDA(_xlpm.good,_xlpm.names, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(COUNTA(_xlpm.names)), _xlfn.TOCOL(_xlfn.MAP(_xlpm.names, _xlfn.LAMBDA(_xlpm.name, IN(_xlpm.name, _xlpm.good))))))</definedName>
-    <definedName name="MONTHS" comment="A column containing all month names.">{"January";"February";"Mars";"April";"May";"June";"July";"August";"September";"October";"November";"December"}</definedName>
-    <definedName name="NPVALT" comment="Calculates the net present value of a cash flow.">_xlfn.LAMBDA(_xlpm.r,_xlpm.cash_flow, SUM(_xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.cash_flow)), _xlfn.LAMBDA(_xlpm.x, INDEX(_xlpm.cash_flow, _xlpm.x) / (1 + _xlpm.r) ^ _xlpm.x))))</definedName>
-    <definedName name="NPVNEW" comment="Calculates the net present value of a cash flow.">_xlfn.LAMBDA(_xlpm.r,_xlpm.cash_flow, SUM(_xlfn.BYROW(_xlfn.HSTACK(_xlpm.cash_flow, _xlfn.SEQUENCE(ROWS(_xlpm.cash_flow))), _xlfn.LAMBDA(_xlpm.x, INDEX(_xlpm.x, 1) / (1 + _xlpm.r) ^ INDEX(_xlpm.x, 2)))))</definedName>
-    <definedName name="SELECTOR">_xlfn.LAMBDA(_xlpm.x,_xlpm.good, _xlfn.LET(_xlpm.names, _xlfn.CHOOSEROWS(_xlpm.x, 1), _xlpm.indices, INDICES_(_xlpm.good, _xlpm.names), _xlfn.CHOOSECOLS(_xlpm.x, _xlpm.indices)))</definedName>
-    <definedName name="SUMNEW" comment="A new summing functios. For illustration only.">_xlfn.LAMBDA(_xlpm.x, SUM(_xlpm.x))</definedName>
-    <definedName name="TABLECOL" comment="Returns the column 'table[column]', where both table and column are text arguments.">_xlfn.LAMBDA(_xlpm.table,_xlpm.column, INDIRECT(_xlpm.table &amp; "[" &amp; _xlpm.column &amp; "]"))</definedName>
     <definedName name="TABLEROW">_xlfn.LAMBDA(_xlpm.table_name,_xlpm.column_name, INDIRECT(_xlpm.table_name &amp; "[" &amp; _xlpm.column_name &amp; "]"))</definedName>
-    <definedName name="TABLES">{"one";"two";"three"}</definedName>
-    <definedName name="TEMP">_xlfn.LAMBDA(_xlpm.good,_xlpm.names, _xlfn.MAP(_xlpm.names, _xlfn.LAMBDA(_xlpm.name, IN(_xlpm.name, _xlpm.good))))</definedName>
-    <definedName name="TEMP2">_xlfn.LAMBDA(_xlpm.good,_xlpm.names, _xlfn.HSTACK(_xlfn.SEQUENCE(COUNTA(_xlpm.names)), _xlfn.TOCOL(_xlpm.names)))</definedName>
-    <definedName name="WORDCOUNT" comment="Count words in a text, ignoring extra whitespace.">_xlfn.LAMBDA(_xlpm.text, LEN(TRIM(_xlpm.text)) - LEN(SUBSTITUTE(TRIM(_xlpm.text), " ", "")) + 1)</definedName>
-    <definedName name="WORDCOUNT1" comment="Count words in a text, ignoring extra whitespace.">_xlfn.LAMBDA(_xlpm.text, ROWS(_xlfn.TEXTSPLIT(_xlpm.text, " ")))</definedName>
-    <definedName name="WORDCOUNT2_2" comment="Count words in a text, ignoring extra whitespace.">_xlfn.LAMBDA(_xlpm.text, ROWS(_xlfn.TEXTSPLIT(TRIM(_xlpm.text), " ")))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Genre</t>
   </si>
@@ -255,12 +238,42 @@
       <t>CHOOSECOLS</t>
     </r>
   </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Carry out the following operations</t>
+  </si>
+  <si>
+    <t>Task 1: Choose the "Name" and "JP_Sales" columns from the VGSmall table.</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 2: Do the previous task again, but use XMATCH to find the index of "Name" and "JP_Sales". </t>
+  </si>
+  <si>
+    <t>Use that Table[#Headers] contains the header names of the table Table.</t>
+  </si>
+  <si>
+    <t>Use VGSmall[#All] to keep the headers.</t>
+  </si>
+  <si>
+    <t>Task 3:  Use XMATCH to select the rows from VGSall with names "L.A. Noire" and "Heavy Rain".</t>
+  </si>
+  <si>
+    <t>Task 4: Use XMATCH to select the rows from VGSall with names "L.A. Noire" and "Heavy Rain".</t>
+  </si>
+  <si>
+    <t>But this time, display only the name and Japanese sales.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +317,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -371,20 +398,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,9 +434,12 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -589,18 +634,6 @@
             </a:rPr>
             <a:t> more clearly.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -954,7 +987,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="613" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="770" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -978,13 +1011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BA9A7-CBAD-497F-B17B-BBC27EB98918}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="6" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -993,34 +1026,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1876,6 +1909,740 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF06AD3C-666C-47DF-A3AD-9A2F4E67E4D6}">
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str" cm="1">
+        <f t="array" ref="A9:B19">_xlfn.CHOOSECOLS(VGSmall[#All],2,9)</f>
+        <v>Name</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <v>JP_Sales</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <v>Super Mario Land 2: 6 Golden Coins</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <v>Zelda II: The Adventure of Link</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <v>Rugrats: Search For Reptar</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <v>Club Penguin: Elite Penguin Force</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <v>Myst</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str" cm="1">
+        <f t="array" ref="A25:B35">_xlfn.CHOOSECOLS(VGSmall[#All],_xlfn.XMATCH({"Name";"JP_Sales"},VGSmall[#Headers]))</f>
+        <v>Name</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <v>JP_Sales</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="str">
+        <v>Super Mario Land 2: 6 Golden Coins</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="str">
+        <v>Zelda II: The Adventure of Link</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="str">
+        <v>Rugrats: Search For Reptar</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="str">
+        <v>Club Penguin: Elite Penguin Force</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="str">
+        <v>Myst</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" cm="1">
+        <f t="array" ref="A40:K41">_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name]))</f>
+        <v>418</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <v>PS3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2011</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <v>Take-Two Interactive</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="K40" s="7">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>448</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <v>PS3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <v>Sony Computer Entertainment</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="7">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="str" cm="1">
+        <f t="array" ref="A47:B48">_xlfn.CHOOSECOLS(_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name])),{2;9})</f>
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A46:B46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E117404F-067F-4808-87E3-3D94CD0E2844}">
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A46:B46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBA9B6-0C97-480B-BC7B-D98DF87E7B42}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1930,7 +2697,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwA7AFwAbgBcAG4ALwAvAC8AIAA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0AXABuAC8ALwAvACAAMQAgAEEAcgByAGEAeQAgAGMAbwBuAHMAdABhAG4AdABzACAAXABuAC8ALwAvACAAPQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AFwAbgBcAG4ALwAqACoAIABcAG4AIAAqACAAQQAgAGMAbwBsAHUAbQBuACAAYwBvAG4AdABhAGkAbgBpAG4AZwAgAGEAbABsACAAbQBvAG4AdABoACAAbgBhAG0AZQBzAC4AXABuACAAKgAvAFwAbgBNAE8ATgBUAEgAUwAgAD0AIAB7AFwAbgAgACAAIAAgAFwAIgBKAGEAbgB1AGEAcgB5AFwAIgA7AFwAbgAgACAAIAAgAFwAIgBGAGUAYgByAHUAYQByAHkAXAAiADsAXABuACAAIAAgACAAXAAiAE0AYQByAHMAXAAiADsAXABuACAAIAAgACAAXAAiAEEAcAByAGkAbABcACIAOwBcAG4AIAAgACAAIABcACIATQBhAHkAXAAiADsAXABuACAAIAAgACAAXAAiAEoAdQBuAGUAXAAiADsAXABuACAAIAAgACAAXAAiAEoAdQBsAHkAXAAiADsAXABuACAAIAAgACAAXAAiAEEAdQBnAHUAcwB0AFwAIgA7AFwAbgAgACAAIAAgAFwAIgBTAGUAcAB0AGUAbQBiAGUAcgBcACIAOwBcAG4AIAAgACAAIABcACIATwBjAHQAbwBiAGUAcgBcACIAOwBcAG4AIAAgACAAIABcACIATgBvAHYAZQBtAGIAZQByAFwAIgA7AFwAbgAgACAAIAAgAFwAIgBEAGUAYwBlAG0AYgBlAHIAXAAiAFwAbgB9ADsAOwBcAG4AXABuAC8AKgAqACAAXABuACAAKgAgAEEAbgAgAGEAcgByAGEAeQAgAGMAbwBuAHMAdABhAG4AdAAgAHUAcwBlAGQAIABmAG8AcgAgAGUAeABhAG0AcABsAGUAcwAuAFwAbgAgACoALwBcAG4AQQBSAFIAIAA9ACAAewAxAFwAXAAyAFwAXAA0ADsAIAAzAFwAXAA0AFwAXAA0AH0AOwA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEcAcgBhAGQAZQAgAGEAcgByAGEAeQAuAFwAbgAgACoALwBcAG4ARwBSAEEARABFAFMAIAA9ACAAVABSAEEATgBTAFAATwBTAEUAKAB7ADkAMQBcAFwAOAAwAFwAXAA3ADAAXABcADUAMABcAFwANAAwAFwAXAAwADsAIABcACIAQQBcACIAXABcAFwAIgBCAFwAIgBcAFwAXAAiAEMAXAAiAFwAXABcACIARABcACIAXABcAFwAIgBFAFwAIgBcAFwAXAAiAEYAXAAiAH0AKQA7ADsAXABuAFwAbgAvAC8ALwAgAD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQBcAG4ALwAvAC8AIAA0ACAATQBhAG4AaQBwAHUAbABhAHQAaQBuAGcAIABhAHIAcgBhAHkAIABkAGkAbQBlAG4AcwBpAG8AbgBzAFwAbgAvAC8ALwAgAD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQBcAG4AXABuAC8AKgAqACAAXABuACAAKgAgAEMAaABlAGMAawBzACAAaQBmACAAdgBhAGwAdQBlACAAaQBzACAAaQBuACAAYQByAHIAYQB5AC4AXABuACAAKgAvAFwAbgBJAE4AXwAgAD0AIABMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQA7ACAAYQByAHIAYQB5ADsAIABTAFUATQAoAC0ALQAoAGEAcgByAGEAeQAgAD0AIAB2AGEAbAB1AGUAKQApACAAPgAgADAAKQA7ADsAXABuAFwAbgAvACoAKgAgAFwAbgAgACoAIABDAGgAZQBjAGsAcwAgAGkAZgAgAHYAYQBsAHUAZQAgAGkAcwAgAGkAbgAgAGEAcgByAGEAeQAuAFwAbgAgACoALwBcAG4ASQBOACAAPQAgAEwAQQBNAEIARABBACgAdgBhAGwAdQBlADsAIABhAHIAcgBhAHkAOwAgAEwARQBUACgAYwBvAGwAOwAgAFQATwBDAE8ATAAoAGEAcgByAGEAeQApADsAIABTAFUATQAoAC0ALQAoAGMAbwBsACAAPQAgAHYAYQBsAHUAZQApACkAIAA+ACAAMAApACkAOwA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwB1AG4AdAAgAHcAbwByAGQAcwAgAGkAbgAgAGEAIAB0AGUAeAB0ACwAIABpAGcAbgBvAHIAaQBuAGcAIABlAHgAdAByAGEAIAB3AGgAaQB0AGUAcwBwAGEAYwBlAC4AXABuACAAKgAvAFwAbgBXAE8AUgBEAEMATwBVAE4AVAAxACAAPQAgAEwAQQBNAEIARABBACgAdABlAHgAdAA7ACAAUgBPAFcAUwAoAFQARQBYAFQAUwBQAEwASQBUACgAdABlAHgAdAA7ACAAXAAiACAAXAAiACkAKQApADsAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AdQBuAHQAIAB3AG8AcgBkAHMAIABpAG4AIABhACAAdABlAHgAdAAsACAAaQBnAG4AbwByAGkAbgBnACAAZQB4AHQAcgBhACAAdwBoAGkAdABlAHMAcABhAGMAZQAuAFwAbgAgACoALwBcAG4AVwBPAFIARABDAE8AVQBOAFQAMgBfADIAIAA9ACAATABBAE0AQgBEAEEAKAB0AGUAeAB0ADsAIABSAE8AVwBTACgAVABFAFgAVABTAFAATABJAFQAKABUAFIASQBNACgAdABlAHgAdAApADsAIABcACIAIABcACIAKQApACkAOwA7AFwAbgBcAG4ALwAqACoAXABuACAAKgAgAEMAbwB1AG4AdAAgAHcAbwByAGQAcwAgAGkAbgAgAGEAIAB0AGUAeAB0ACwAIABpAGcAbgBvAHIAaQBuAGcAIABlAHgAdAByAGEAIAB3AGgAaQB0AGUAcwBwAGEAYwBlAC4AXABuACAAKgAvAFwAbgBXAE8AUgBEAEMATwBVAE4AVAAgAD0AIABMAEEATQBCAEQAQQAoAHQAZQB4AHQAOwAgAEwARQBOACgAVABSAEkATQAoAHQAZQB4AHQAKQApACAALQAgAEwARQBOACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAFQAUgBJAE0AKAB0AGUAeAB0ACkAOwAgAFwAIgAgAFwAIgA7ACAAXAAiAFwAIgApACkAIAArACAAMQApADsAOwBcAG4AXABuAC8AKgAqAFwAbgAgACoAIABDAG8AdQBuAHQAIAB3AG8AcgBkAHMAIABpAG4AIABhACAAdABlAHgAdAAsACAAaQBnAG4AbwByAGkAbgBnACAAZQB4AHQAcgBhACAAdwBoAGkAdABlAHMAcABhAGMAZQAuAFwAbgAgACoALwBcAG4AVwBPAFIARABDAE8AVQBOAFQAIAA9ACAATABBAE0AQgBEAEEAKABzAHQAcgA7AFwAbgAgACAAIAAgAEwARQBUACgAdAByAGkAbQBtAGUAZAA7ACAAVABSAEkATQAoAHMAdAByACkAOwAgAEwARQBOACgAdAByAGkAbQBtAGUAZAApACAALQAgAEwARQBOACgAUwBVAEIAUwBUAEkAVABVAFQARQAoAHQAcgBpAG0AbQBlAGQAOwAgAFwAIgAgAFwAIgA7ACAAXAAiAFwAIgApACkAIAArACAAMQApAFwAbgApADsAOwBcAG4AXABuAC8AKgAqACAAXABuACAAKgAgAEMAaABlAGMAawBzACAAaQBmACAAdgBhAGwAdQBlACAAaQBzACAAaQBuACAAYQByAHIAYQB5AC4AXABuACAAKgAvAFwAbgBJAE4AXwAgAD0AIABMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQA7ACAAYQByAHIAYQB5ADsAIABTAFUATQAoAC0ALQAoAGEAcgByAGEAeQAgAD0AIAB2AGEAbAB1AGUAKQAgAD0AIAAxACkAIAA9ACAAMQApADsAOwBcAG4AXABuAC8AKgAqACAAXABuACAAKgAgAEMAaABlAGMAawBzACAAaQBmACAAdgBhAGwAdQBlACAAaQBzACAAaQBuACAAYQByAHIAYQB5AC4AXABuACAAKgAvAFwAbgBJAE4AIAA9ACAATABBAE0AQgBEAEEAKAB2AGEAbAB1AGUAOwAgAGEAcgByAGEAeQA7ACAATABFAFQAKABjAG8AbAA7ACAAVABPAEMATwBMACgAYQByAHIAYQB5ACkAOwAgAFMAVQBNACgALQAtACgAYwBvAGwAIAA9ACAAdgBhAGwAdQBlACkAKQAgAD0AIAAxACkAKQA7ADsAXABuAFwAbgAvACoAKgAgAFwAbgAgACoAIABBAG4AIABhAHIAcgBhAHkAIABjAG8AbgBzAHQAYQBuAHQAIAB1AHMAZQBkACAAZgBvAHIAIABlAHgAYQBtAHAAbABlAHMALgBcAG4AIAAqAC8AQQBSAFIAIAA9ACAAewAxAFwAXAAyAFwAXAAzADsAIAAzAFwAXAA0AFwAXAA0AH0AOwA7AFwAbgBcAG4ALwAqACoAIABcAG4AIAAqACAAQwBhAGwAYwB1AGwAYQB0AGUAcwAgAHQAaABlACAAbgBlAHQAIABwAHIAZQBzAGUAbgB0ACAAdgBhAGwAdQBlACAAbwBmACAAYQAgAGMAYQBzAGgAIABmAGwAbwB3AC4AXABuACAAKgAvAFwAbgBOAFAAVgBOAEUAVwAgAD0AIABMAEEATQBCAEQAQQAoAHIAOwAgAGMAYQBzAGgAXwBmAGwAbwB3ADsAXABuACAAIAAgACAAUwBVAE0AKABcAG4AIAAgACAAIAAgACAAIAAgAEIAWQBSAE8AVwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAGMAYQBzAGgAXwBmAGwAbwB3ADsAIABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAYwBhAHMAaABfAGYAbABvAHcAKQApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKAB4ADsAIABJAE4ARABFAFgAKAB4ADsAIAAxACkAIAAvACAAKAAxACAAKwAgAHIAKQAgAF4AIABJAE4ARABFAFgAKAB4ADsAIAAyACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7ADsAXABuAFwAbgAvACoAKgAgAFwAbgAgACoAIABDAGEAbABjAHUAbABhAHQAZQBzACAAdABoAGUAIABuAGUAdAAgAHAAcgBlAHMAZQBuAHQAIAB2AGEAbAB1AGUAIABvAGYAIABhACAAYwBhAHMAaAAgAGYAbABvAHcALgBcAG4AIAAqAC8AXABuAE4AUABWAEEATABUACAAPQAgAEwAQQBNAEIARABBACgAcgA7ACAAYwBhAHMAaABfAGYAbABvAHcAOwBcAG4AIAAgACAAIABTAFUATQAoAE0AQQBQACgAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAGMAYQBzAGgAXwBmAGwAbwB3ACkAKQA7ACAATABBAE0AQgBEAEEAKAB4ADsAIABJAE4ARABFAFgAKABjAGEAcwBoAF8AZgBsAG8AdwA7ACAAeAApACAALwAgACgAMQAgACsAIAByACkAIABeACAAeAApACkAKQBcAG4AKQA7ADsAXABuAFwAbgAvACoAKgAgAFwAbgAgACoAIABBACAAbgBlAHcAIABzAHUAbQBtAGkAbgBnACAAZgB1AG4AYwB0AGkAbwBzAC4AIABGAG8AcgAgAGkAbABsAHUAcwB0AHIAYQB0AGkAbwBuACAAbwBuAGwAeQAuAFwAbgAgACoALwBcAG4AUwBVAE0ATgBFAFcAIAA9ACAATABBAE0AQgBEAEEAKAB4ADsAIABTAFUATQAoAHgAKQApADsAOwBcAG4AXABuAC8ALwAvACAASQBOAEQASQBSAEUAQwBUAFwAbgBTAEUATABFAEMAVABPAFIAIAA9ACAATABBAE0AQgBEAEEAKAB4ADsAIABnAG8AbwBkADsAXABuACAAIAAgACAATABFAFQAKABuAGEAbQBlAHMAOwAgAEMASABPAE8AUwBFAFIATwBXAFMAKAB4ADsAIAAxACkAOwAgAGkAbgBkAGkAYwBlAHMAOwAgAEkATgBEAEkAQwBFAFMAXwAoAGcAbwBvAGQAOwAgAG4AYQBtAGUAcwApADsAIABDAEgATwBPAFMARQBDAE8ATABTACgAeAA7ACAAaQBuAGQAaQBjAGUAcwApACkAXABuACkAOwA7AFwAbgBcAG4ALwAvAC8AIABZAG8AdQAgAGgAYQB2AGUAIABhACAAYwBvAGwAdQBtAG4AIABvAGYAIABuAGEAbQBlAHMAIABhAG4AZAAgAGEAbgBvAHQAaABlAHIAIABjAG8AbAB1AG0AbgAgAG8AZgAgAEcATwBPAEQALgBcAG4ALwAvAC8AIABNAGEAawBlACAAYQAgAGYAdQBuAGMAdABpAG8AbgAgAHIAZQB0AHUAcgBpAG4AZwAgAHQAaABlACAAaQBuAGQAaQBjAGUAcwAgAG8AZgAgAEcATwBPAEQAIABpAG4AIABuAGEAbQBlAHMALgBcAG4ASQBOAEQASQBDAEUAUwAgAD0AIABMAEEATQBCAEQAQQAoAGcAbwBvAGQAOwAgAG4AYQBtAGUAcwA7AFwAbgAgACAAIAAgAEYASQBMAFQARQBSACgAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFMARQBRAFUARQBOAEMARQAoAEMATwBVAE4AVABBACgAbgBhAG0AZQBzACkAKQA7ACAAVABPAEMATwBMACgAbgBhAG0AZQBzACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAVABPAEMATwBMACgATQBBAFAAKABuAGEAbQBlAHMAOwAgAEwAQQBNAEIARABBACgAbgBhAG0AZQA7ACAASQBOACgAbgBhAG0AZQA7ACAAZwBvAG8AZAApACkAKQApAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4ASQBOAEQASQBDAEUAUwBfACAAPQAgAEwAQQBNAEIARABBACgAZwBvAG8AZAA7ACAAbgBhAG0AZQBzADsAXABuACAAIAAgACAARgBJAEwAVABFAFIAKABTAEUAUQBVAEUATgBDAEUAKABDAE8AVQBOAFQAQQAoAG4AYQBtAGUAcwApACkAOwAgAFQATwBDAE8ATAAoAE0AQQBQACgAbgBhAG0AZQBzADsAIABMAEEATQBCAEQAQQAoAG4AYQBtAGUAOwAgAEkATgAoAG4AYQBtAGUAOwAgAGcAbwBvAGQAKQApACkAKQApAFwAbgApADsAOwBcAG4AXABuAFQARQBNAFAAIAA9ACAATABBAE0AQgBEAEEAKABnAG8AbwBkADsAIABuAGEAbQBlAHMAOwAgAE0AQQBQACgAbgBhAG0AZQBzADsAIABMAEEATQBCAEQAQQAoAG4AYQBtAGUAOwAgAEkATgAoAG4AYQBtAGUAOwAgAGcAbwBvAGQAKQApACkAKQA7ADsAXABuAFwAbgBUAEUATQBQADIAIAA9ACAATABBAE0AQgBEAEEAKABnAG8AbwBkADsAIABuAGEAbQBlAHMAOwAgAEgAUwBUAEEAQwBLACgAUwBFAFEAVQBFAE4AQwBFACgAQwBPAFUATgBUAEEAKABuAGEAbQBlAHMAKQApADsAIABUAE8AQwBPAEwAKABuAGEAbQBlAHMAKQApACkAOwA7AFwAbgBcAG4AVABBAEIATABFAFMAIAA9ACAAewBcACIAbwBuAGUAXAAiADsAIABcACIAdAB3AG8AXAAiADsAIABcACIAdABoAHIAZQBlAFwAIgB9ADsAOwBcAG4AXABuAFwAbgBcAG4ALwAvAC8AIAA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0AXABuAC8ALwAvACAANwAgAEkATgBEAEkAUgBFAEMAVABcAG4ALwAvAC8AIAA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0APQA9AD0AXABuAFwAbgAvACoAKgBcAG4AIAAqACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAYwBvAGwAdQBtAG4AIAAnAHQAYQBiAGwAZQBbAGMAbwBsAHUAbQBuAF0AJwAsACAAdwBoAGUAcgBlACAAYgBvAHQAaAAgAHQAYQBiAGwAZQAgAGEAbgBkACAAYwBvAGwAdQBtAG4AIABhAHIAZQAgAHQAZQB4AHQAIABhAHIAZwB1AG0AZQBuAHQAcwAuAFwAbgAgACoALwBcAG4AXABuAFQAQQBCAEwARQBDAE8ATAAgAD0AIABMAEEATQBCAEQAQQAoAHQAYQBiAGwAZQA7ACAAYwBvAGwAdQBtAG4AOwAgAEkATgBEAEkAUgBFAEMAVAAoAHQAYQBiAGwAZQAgACYAIABcACIAWwBcACIAIAAmACAAYwBvAGwAdQBtAG4AIAAmACAAXAAiAF0AXAAiACkAKQA7ADsAXABuAFwAbgAvACoAKgBcAG4AIAAqACAARwBlAHQAIABtAGUAYQBuACAAcwBhAGwAZQBzACwAIABtAGEAeABpAG0AYQBsACAAeQBlAGEAcgAsACAAYQBuAGQAIAB0AGgAZQAgAGIAZQBzAHQALQBzAGUAbABsAGkAbgBnACAAZwBhAG0AZQAgAGYAcgBvAG0AIAB0AGgAZQAgAHQAYQBiAGwAZQAgACcAdABhAGIAbABlACAAJgAgAFQAYQBiAGwAZQAnAC4AXABuACAAKgAvAFwAbgBHAEUAVABEAEEAVABBACAAPQAgAEwAQQBNAEIARABBACgAbgBhAG0AZQA7AFwAbgAgACAAIAAgAEwARQBUACgAdABhAGIAbABlADsAbgBhAG0AZQAgACYAIABcACIAVABhAGIAbABlAFwAIgA7AFwAbgAgACAAIAAgACAAIAAgACAAcwBhAGwAZQBzADsAVABBAEIATABFAEMATwBMACgAdABhAGIAbABlADsAXAAiAFMAYQBsAGUAcwBcACIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAeQBlAGEAcgBzADsAVABBAEIATABFAEMATwBMACgAdABhAGIAbABlADsAXAAiAFkAZQBhAHIAXAAiACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAG4AYQBtAGUAcwA7AFQAQQBCAEwARQBDAE8ATAAoAHQAYQBiAGwAZQA7AFwAIgBOAGEAbQBlAFwAIgApADsAXABuACAAIAAgACAAIAAgACAAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AcwA7AFYAUwBUAEEAQwBLACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEEAVgBFAFIAQQBHAEUAKABzAGEAbABlAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAHkAZQBhAHIAcwApADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFgATABPAE8ASwBVAFAAKABNAEEAWAAoAHMAYQBsAGUAcwApADsAcwBhAGwAZQBzADsAbgBhAG0AZQBzACkAXABuACAAIAAgACAAIAAgACAAIAApADsAXABuACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAB7AFwAIgBBAHYAZQByAGEAZwBlACAAcwBhAGwAZQBzAFwAIgA7ACAAXAAiAE0AYQB4ACAAeQBlAGEAcgBcACIAOwAgAFwAIgBCAGUAcwB0AC0AcwBlAGwAbABpAG4AZwAgAGcAYQBtAGUAXAAiAH0AOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4AXABuAFMARQBMAEUAQwBUACAAPQAgAEwAQQBNAEIARABBACgAdABhAGIAbABlADsAIABjAG8AbAB1AG0AbgBzADsAIAAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBNAE8ATgBUAEgAUwAiACwAIgBBAFIAUgAiACwAIgBHAFIAQQBEAEUAUwAiACwAIgBJAE4AXwAiACwAIgBJAE4AIgAsACIAVwBPAFIARABDAE8AVQBOAFQAMQAiACwAIgBXAE8AUgBEAEMATwBVAE4AVAAyAF8AMgAiACwAIgBXAE8AUgBEAEMATwBVAE4AVAAiACwAIgBOAFAAVgBOAEUAVwAiACwAIgBOAFAAVgBBAEwAVAAiACwAIgBTAFUATQBOAEUAVwAiACwAIgBTAEUATABFAEMAVABPAFIAIgAsACIASQBOAEQASQBDAEUAUwAiACwAIgBJAE4ARABJAEMARQBTAF8AIgAsACIAVABFAE0AUAAiACwAIgBUAEUATQBQADIAIgAsACIAVABBAEIATABFAFMAIgAsACIAVABBAEIATABFAEMATwBMACIALAAiAEcARQBUAEQAQQBUAEEAIgAsACIAUwBFAEwARQBDAFQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAFwAXAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAgACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgBrAHIAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AHQAcgB1AGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AZwBiACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgBcAFwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAIAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAawByACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgB0AHIAdQBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAGcAYgAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/slides/lecture05/choosecols_chooserows.xlsx
+++ b/slides/lecture05/choosecols_chooserows.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9030" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6539EED1-CA3A-4043-9EA4-A67BBC5CA872}"/>
+  <xr:revisionPtr revIDLastSave="9034" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DEFDFA-B8BC-4F87-B8FA-3066842A5D8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHOOSEROWS and CHOOSECOLS" sheetId="28" r:id="rId1"/>
-    <sheet name="Exercises" sheetId="29" r:id="rId2"/>
-    <sheet name="Exercises (solutions)" sheetId="30" r:id="rId3"/>
+    <sheet name="Exercises" sheetId="30" r:id="rId2"/>
+    <sheet name="Exercises (solutions)" sheetId="29" r:id="rId3"/>
     <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BA9A7-CBAD-497F-B17B-BBC27EB98918}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A18)</f>
-        <v>=CHOOSECOLS(VGSmall;3)</v>
+        <v>=CHOOSECOLS(VGSmall,3)</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1532,7 +1532,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A31)</f>
-        <v>=CHOOSECOLS(VGSmall[#All];{2;3;4;11})</v>
+        <v>=CHOOSECOLS(VGSmall[#All],{2;3;4;11})</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1713,7 +1713,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A45)</f>
-        <v>=CHOOSECOLS(VGSmall;-1)</v>
+        <v>=CHOOSECOLS(VGSmall,-1)</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1788,7 +1788,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A59)</f>
-        <v>=XMATCH("Myst";VGSmall[Name])</v>
+        <v>=XMATCH("Myst",VGSmall[Name])</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1803,7 +1803,7 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A62)</f>
-        <v>=CHOOSEROWS(VGSmall;XMATCH("Myst";VGSmall[Name]))</v>
+        <v>=CHOOSEROWS(VGSmall,XMATCH("Myst",VGSmall[Name]))</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1909,11 +1909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF06AD3C-666C-47DF-A3AD-9A2F4E67E4D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E117404F-067F-4808-87E3-3D94CD0E2844}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,93 +1982,48 @@
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str" cm="1">
-        <f t="array" ref="A9:B19">_xlfn.CHOOSECOLS(VGSmall[#All],2,9)</f>
-        <v>Name</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <v>JP_Sales</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <v>Super Mario Land 2: 6 Golden Coins</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2.69</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <v>Assassin's Creed</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <v>Assassin's Creed</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.09</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <v>Zelda II: The Adventure of Link</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.61</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <v>Rugrats: Search For Reptar</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <v>L.A. Noire</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.12</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <v>Club Penguin: Elite Penguin Force</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <v>Heavy Rain</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.06</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <v>Myst</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <v>L.A. Noire</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.02</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -2105,93 +2060,48 @@
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str" cm="1">
-        <f t="array" ref="A25:B35">_xlfn.CHOOSECOLS(VGSmall[#All],_xlfn.XMATCH({"Name";"JP_Sales"},VGSmall[#Headers]))</f>
-        <v>Name</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <v>JP_Sales</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="str">
-        <v>Super Mario Land 2: 6 Golden Coins</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2.69</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="str">
-        <v>Assassin's Creed</v>
-      </c>
-      <c r="B27" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="str">
-        <v>Assassin's Creed</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.09</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="str">
-        <v>Zelda II: The Adventure of Link</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1.61</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="str">
-        <v>Rugrats: Search For Reptar</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="str">
-        <v>L.A. Noire</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.12</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="str">
-        <v>Club Penguin: Elite Penguin Force</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="str">
-        <v>Heavy Rain</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.06</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="str">
-        <v>Myst</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="str">
-        <v>L.A. Noire</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.02</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2214,75 +2124,30 @@
       <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" cm="1">
-        <f t="array" ref="A40:K41">_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name]))</f>
-        <v>418</v>
-      </c>
-      <c r="B40" s="7" t="str">
-        <v>L.A. Noire</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <v>PS3</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E40" s="7" t="str">
-        <v>Adventure</v>
-      </c>
-      <c r="F40" s="7" t="str">
-        <v>Take-Two Interactive</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1.27</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1.33</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="K40" s="7">
-        <v>3.23</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>448</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <v>Heavy Rain</v>
-      </c>
-      <c r="C41" s="7" t="str">
-        <v>PS3</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2010</v>
-      </c>
-      <c r="E41" s="7" t="str">
-        <v>Adventure</v>
-      </c>
-      <c r="F41" s="7" t="str">
-        <v>Sony Computer Entertainment</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1.29</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1.27</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="7">
-        <v>3.12</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -2319,21 +2184,12 @@
       <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="str" cm="1">
-        <f t="array" ref="A47:B48">_xlfn.CHOOSECOLS(_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name])),{2;9})</f>
-        <v>L.A. Noire</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.12</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="str">
-        <v>Heavy Rain</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.06</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2348,11 +2204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E117404F-067F-4808-87E3-3D94CD0E2844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF06AD3C-666C-47DF-A3AD-9A2F4E67E4D6}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,48 +2277,93 @@
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7" t="str" cm="1">
+        <f t="array" ref="A9:B19">_xlfn.CHOOSECOLS(VGSmall[#All],2,9)</f>
+        <v>Name</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <v>JP_Sales</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="7" t="str">
+        <v>Super Mario Land 2: 6 Golden Coins</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="7" t="str">
+        <v>Zelda II: The Adventure of Link</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="7" t="str">
+        <v>Rugrats: Search For Reptar</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="7" t="str">
+        <v>Club Penguin: Elite Penguin Force</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7" t="str">
+        <v>Myst</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -2499,48 +2400,93 @@
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="7" t="str" cm="1">
+        <f t="array" ref="A25:B35">_xlfn.CHOOSECOLS(VGSmall[#All],_xlfn.XMATCH({"Name";"JP_Sales"},VGSmall[#Headers]))</f>
+        <v>Name</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <v>JP_Sales</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7" t="str">
+        <v>Super Mario Land 2: 6 Golden Coins</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="7" t="str">
+        <v>Assassin's Creed</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="7" t="str">
+        <v>Zelda II: The Adventure of Link</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="7" t="str">
+        <v>Rugrats: Search For Reptar</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="7" t="str">
+        <v>Club Penguin: Elite Penguin Force</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="7" t="str">
+        <v>Myst</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2563,30 +2509,75 @@
       <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="A40" s="7" cm="1">
+        <f t="array" ref="A40:K41">_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name]))</f>
+        <v>418</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <v>L.A. Noire</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <v>PS3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2011</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <v>Take-Two Interactive</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="K40" s="7">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="A41" s="7">
+        <v>448</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <v>PS3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <v>Sony Computer Entertainment</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="7">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -2623,12 +2614,21 @@
       <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="7" t="str" cm="1">
+        <f t="array" ref="A47:B48">_xlfn.CHOOSECOLS(_xlfn.CHOOSEROWS(VGSmall[],_xlfn.XMATCH({"L.A. Noire";"Heavy Rain"},VGSmall[Name])),{2;9})</f>
+        <v>L.A. Noire</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="7" t="str">
+        <v>Heavy Rain</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.06</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/slides/lecture05/choosecols_chooserows.xlsx
+++ b/slides/lecture05/choosecols_chooserows.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9034" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DEFDFA-B8BC-4F87-B8FA-3066842A5D8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4095" yWindow="3690" windowWidth="20010" windowHeight="11715" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHOOSEROWS and CHOOSECOLS" sheetId="28" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BA9A7-CBAD-497F-B17B-BBC27EB98918}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A18)</f>
-        <v>=CHOOSECOLS(VGSmall,3)</v>
+        <v>=CHOOSECOLS(VGSmall;3)</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1532,7 +1532,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A31)</f>
-        <v>=CHOOSECOLS(VGSmall[#All],{2;3;4;11})</v>
+        <v>=CHOOSECOLS(VGSmall[#All];{2;3;4;11})</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1713,7 +1713,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A45)</f>
-        <v>=CHOOSECOLS(VGSmall,-1)</v>
+        <v>=CHOOSECOLS(VGSmall;-1)</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1788,7 +1788,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A59)</f>
-        <v>=XMATCH("Myst",VGSmall[Name])</v>
+        <v>=XMATCH("Myst";VGSmall[Name])</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1803,7 +1803,7 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A62)</f>
-        <v>=CHOOSEROWS(VGSmall,XMATCH("Myst",VGSmall[Name]))</v>
+        <v>=CHOOSEROWS(VGSmall;XMATCH("Myst";VGSmall[Name]))</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>

--- a/slides/lecture05/choosecols_chooserows.xlsx
+++ b/slides/lecture05/choosecols_chooserows.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9034" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DEFDFA-B8BC-4F87-B8FA-3066842A5D8C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4095" yWindow="3690" windowWidth="20010" windowHeight="11715" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHOOSEROWS and CHOOSECOLS" sheetId="28" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M74" sqref="A1:XFD1048576"/>
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
